--- a/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\SimpleFe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="377" yWindow="463" windowWidth="28037" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="111">
   <si>
     <t>class</t>
   </si>
@@ -117,224 +116,263 @@
     <t>gridtran</t>
   </si>
   <si>
+    <t>grid transformation function</t>
+  </si>
+  <si>
+    <t>porosity</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>porosity as a function of depth</t>
+  </si>
+  <si>
+    <t>phi_Inf</t>
+  </si>
+  <si>
+    <t>porosity at burial depth</t>
+  </si>
+  <si>
+    <t>burial</t>
+  </si>
+  <si>
+    <t>Fsed</t>
+  </si>
+  <si>
+    <t>g cm^-2 yr^-1</t>
+  </si>
+  <si>
+    <t>total sediment flux</t>
+  </si>
+  <si>
+    <t>bioturbation</t>
+  </si>
+  <si>
+    <t>Dbt</t>
+  </si>
+  <si>
+    <t>cm^2/yr</t>
+  </si>
+  <si>
+    <t>bioburbation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>bioirrigation</t>
+  </si>
+  <si>
+    <t>Dbir</t>
+  </si>
+  <si>
+    <t>yr^-1</t>
+  </si>
+  <si>
+    <t>bioirrigation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>adsorption</t>
+  </si>
+  <si>
+    <t>KFe_ads</t>
+  </si>
+  <si>
+    <t>Adsorption constant</t>
+  </si>
+  <si>
+    <t>BoundaryCondition</t>
+  </si>
+  <si>
+    <t>FPOC0</t>
+  </si>
+  <si>
+    <t>mmol cm^-2 yr^-1</t>
+  </si>
+  <si>
+    <t>Flux of POC at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFeOOH0</t>
+  </si>
+  <si>
+    <t>Flux of FeOOH at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFeS0</t>
+  </si>
+  <si>
+    <t>Flux of FeS at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>SO40</t>
+  </si>
+  <si>
+    <t>mmol cm^-3</t>
+  </si>
+  <si>
+    <t>Concentration of SO4 at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Fe0</t>
+  </si>
+  <si>
+    <t>Concentration of Fe at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFe_ads0</t>
+  </si>
+  <si>
+    <t>Flux of Fe_ads at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>pH0</t>
+  </si>
+  <si>
+    <t>free pH scale</t>
+  </si>
+  <si>
+    <t>pH at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TCO20</t>
+  </si>
+  <si>
+    <t>Concentration of TCO2 at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TH2S0</t>
+  </si>
+  <si>
+    <t>Concentration of TH2S at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>KspFeS</t>
+  </si>
+  <si>
+    <t>appears in Omega_RFeS_pre</t>
+  </si>
+  <si>
+    <t>KFeOOH</t>
+  </si>
+  <si>
+    <t>appears in RFeOOHPOC,RSO4POC</t>
+  </si>
+  <si>
+    <t>k_POC</t>
+  </si>
+  <si>
+    <t>KSO4</t>
+  </si>
+  <si>
+    <t>appears in RSO4POC</t>
+  </si>
+  <si>
+    <t>kFeOOHH2S</t>
+  </si>
+  <si>
+    <t>appears in RFeOOHH2S</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>appears in RFeS_pre</t>
+  </si>
+  <si>
+    <t>L * (exp( x /5) - 1) / (exp(L/5) - 1)</t>
+  </si>
+  <si>
     <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
-    <t>porosity</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
+    <t>phiL+ (phi0 - phiL) * exp(-x / xphi)</t>
   </si>
   <si>
     <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
-    <t>phi_Inf</t>
-  </si>
-  <si>
     <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
   </si>
   <si>
-    <t>burial</t>
-  </si>
-  <si>
-    <t>Fsed</t>
-  </si>
-  <si>
-    <t>g cm^-2 yr^-1</t>
-  </si>
-  <si>
-    <t>total sediment flux</t>
-  </si>
-  <si>
-    <t>bioturbation</t>
-  </si>
-  <si>
-    <t>Dbt</t>
-  </si>
-  <si>
-    <t>cm^2/yr</t>
+    <t xml:space="preserve">10* exp(-x / 3) </t>
   </si>
   <si>
     <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
-    <t>bioirrigation</t>
-  </si>
-  <si>
-    <t>Dbir</t>
-  </si>
-  <si>
-    <t>yr^-1</t>
+    <t>10 * exp(-x / 2)</t>
   </si>
   <si>
     <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>KFe_ads</t>
-  </si>
-  <si>
-    <t>Adsorption constant</t>
-  </si>
-  <si>
-    <t>BoundaryCondition</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>mmol cm^-3</t>
-  </si>
-  <si>
-    <t>Concentration of Fe at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFe_ads0</t>
-  </si>
-  <si>
-    <t>mmol cm^-2 yr^-1</t>
-  </si>
-  <si>
-    <t>Flux of Fe_ads at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FPOC0</t>
-  </si>
-  <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFeOOH0</t>
-  </si>
-  <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFeS0</t>
-  </si>
-  <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>O20</t>
-  </si>
-  <si>
-    <t>Concentration of O2 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>SO40</t>
-  </si>
-  <si>
-    <t>Concentration of SO4 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>pH0</t>
-  </si>
-  <si>
-    <t>free pH scale</t>
-  </si>
-  <si>
-    <t>pH at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>TCO20</t>
-  </si>
-  <si>
-    <t>Concentration of TCO2 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>TH2S0</t>
-  </si>
-  <si>
-    <t>Concentration of TH2S at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>appears in Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
-  </si>
-  <si>
-    <t>KspFeS</t>
-  </si>
-  <si>
-    <t>appears in Omega_RFeS_dis,Omega_RFeS_pre</t>
-  </si>
-  <si>
-    <t>KO2</t>
-  </si>
-  <si>
-    <t>appears in RO2POC,RFeOOHPOC,RSO4POC</t>
-  </si>
-  <si>
-    <t>k_POC</t>
-  </si>
-  <si>
-    <t>KFeOOH</t>
-  </si>
-  <si>
-    <t>appears in RFeOOHPOC,RSO4POC</t>
-  </si>
-  <si>
-    <t>KSO4</t>
-  </si>
-  <si>
-    <t>appears in RSO4POC</t>
-  </si>
-  <si>
-    <t>kO2Fe</t>
-  </si>
-  <si>
-    <t>appears in RO2Fe</t>
-  </si>
-  <si>
-    <t>kO2Fe_ads</t>
-  </si>
-  <si>
-    <t>appears in RO2Fe_ads</t>
-  </si>
-  <si>
-    <t>kO2H2S</t>
-  </si>
-  <si>
-    <t>appears in RO2H2S</t>
-  </si>
-  <si>
-    <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>appears in RFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSdis</t>
-  </si>
-  <si>
-    <t>appears in RFeS_dis</t>
-  </si>
-  <si>
-    <t>kFeSpre</t>
-  </si>
-  <si>
-    <t>appears in RFeS_pre</t>
+    <t>cm^3(porewater) cm^-3(dry sediment)</t>
+  </si>
+  <si>
+    <t>POC remineralization rate constant</t>
+  </si>
+  <si>
+    <t>Monod constant FeOOH</t>
+  </si>
+  <si>
+    <t>Monod constant of SO4</t>
+  </si>
+  <si>
+    <t>(mmol cm-3 pw)^-0.5 yr^-1 </t>
+  </si>
+  <si>
+    <t>Oxidiation of H2S by FeOOH</t>
+  </si>
+  <si>
+    <t>10^(-3.2)</t>
+  </si>
+  <si>
+    <t>(mmol cm^-3 pw)^-1 </t>
+  </si>
+  <si>
+    <t>apparent solubility of FeS  </t>
+  </si>
+  <si>
+    <t>200e-3*ds_rho</t>
+  </si>
+  <si>
+    <t>mmol cm^-3 ds yr^-1 </t>
+  </si>
+  <si>
+    <t>FeS precipitation rate constant</t>
+  </si>
+  <si>
+    <t> 0.565772678 </t>
+  </si>
+  <si>
+    <t>mmol cm^-3</t>
+  </si>
+  <si>
+    <t>Seawater Cl concentration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,8 +398,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,14 +718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="28.0703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +753,26 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -715,7 +782,10 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <f>VLOOKUP(C2,L:N,2,0)</f>
+        <v>500</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -725,8 +795,30 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" t="b">
+        <f>N2=E2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>500</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -736,7 +828,10 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3"/>
+      <c r="D3">
+        <f>VLOOKUP(C3,L:N,2,0)</f>
+        <v>35</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -746,8 +841,30 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I30" si="0">N3=E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -757,7 +874,10 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4"/>
+      <c r="D4">
+        <f>VLOOKUP(C4,L:N,2,0)</f>
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -767,8 +887,30 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -778,7 +920,10 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5"/>
+      <c r="D5">
+        <f>VLOOKUP(C5,L:N,2,0)</f>
+        <v>2.6</v>
+      </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -788,8 +933,30 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -799,7 +966,10 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6"/>
+      <c r="D6">
+        <f>VLOOKUP(C6,L:N,2,0)</f>
+        <v>50</v>
+      </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -809,8 +979,30 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -820,7 +1012,10 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7"/>
+      <c r="D7">
+        <f>VLOOKUP(C7,L:N,2,0)</f>
+        <v>200</v>
+      </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -830,8 +1025,30 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>200</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -841,7 +1058,10 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,L:N,2,0)</f>
+        <v>L * (exp( x /5) - 1) / (exp(L/5) - 1)</v>
+      </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
@@ -851,8 +1071,30 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -862,7 +1104,10 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,L:N,2,0)</f>
+        <v>phiL+ (phi0 - phiL) * exp(-x / xphi)</v>
+      </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
@@ -872,8 +1117,30 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -883,7 +1150,10 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10"/>
+      <c r="D10">
+        <f>VLOOKUP(C10,L:N,2,0)</f>
+        <v>0.78839999999999999</v>
+      </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -893,8 +1163,30 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -904,7 +1196,10 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11"/>
+      <c r="D11">
+        <f>VLOOKUP(C11,L:N,2,0)</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -914,8 +1209,30 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -925,7 +1242,10 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,L:N,2,0)</f>
+        <v xml:space="preserve">10* exp(-x / 3) </v>
+      </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
@@ -935,8 +1255,30 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -946,7 +1288,10 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,L:N,2,0)</f>
+        <v>10 * exp(-x / 2)</v>
+      </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -956,8 +1301,30 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -967,16 +1334,43 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14">
+        <f>VLOOKUP(C14,L:N,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" t="b">
+        <f>N14=E14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -986,7 +1380,10 @@
       <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15"/>
+      <c r="D15">
+        <f>VLOOKUP(C15,L:N,2,0)</f>
+        <v>0.31</v>
+      </c>
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -996,8 +1393,30 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>0.31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1007,18 +1426,43 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16"/>
+      <c r="D16">
+        <f>VLOOKUP(C16,L:N,2,0)</f>
+        <v>2.3E-2</v>
+      </c>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1026,20 +1470,45 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(C17,L:N,2,0)</f>
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="D17"/>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1047,20 +1516,45 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18"/>
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(C18,L:N,2,0)</f>
+        <v>0</v>
+      </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1068,20 +1562,45 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19"/>
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(C19,L:N,2,0)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1089,20 +1608,45 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20"/>
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(C20,L:N,2,0)</f>
+        <v>2.9499999999999999E-8</v>
+      </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2.9499999999999999E-8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1112,18 +1656,43 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21"/>
+      <c r="D21">
+        <f>VLOOKUP(C21,L:N,2,0)</f>
+        <v>7.59</v>
+      </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21">
+        <v>7.59</v>
+      </c>
+      <c r="N21" t="s">
         <v>68</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1131,11 +1700,14 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22"/>
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(C22,L:N,2,0)</f>
+        <v>2.3449999999999999E-3</v>
+      </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>71</v>
@@ -1143,8 +1715,30 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2.3449999999999999E-3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1154,9 +1748,12 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23"/>
+      <c r="D23">
+        <f>VLOOKUP(C23,L:N,2,0)</f>
+        <v>2.2204460492503101E-16</v>
+      </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
@@ -1164,254 +1761,349 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,L:N,2,0)</f>
+        <v> 0.565772678 </v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24"/>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="K24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
         <v>75</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="M24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,L:N,2,0)</f>
+        <v>10^(-3.2)</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <f>VLOOKUP(C26,L:N,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
         <v>79</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27">
+        <f>VLOOKUP(C27,L:N,2,0)</f>
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="D28">
+        <f>VLOOKUP(C28,L:N,2,0)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" t="s">
         <v>82</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(C29,L:N,2,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
         <v>84</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="5">
+        <v>4000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,L:N,2,0)</f>
+        <v>200e-3*ds_rho</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
         <v>86</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\SimpleFe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="463" windowWidth="28037" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>class</t>
   </si>
@@ -254,6 +255,9 @@
     <t>Cl</t>
   </si>
   <si>
+    <t>appears in Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
+  </si>
+  <si>
     <t>KspFeS</t>
   </si>
   <si>
@@ -285,94 +289,16 @@
   </si>
   <si>
     <t>appears in RFeS_pre</t>
-  </si>
-  <si>
-    <t>L * (exp( x /5) - 1) / (exp(L/5) - 1)</t>
-  </si>
-  <si>
-    <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>phiL+ (phi0 - phiL) * exp(-x / xphi)</t>
-  </si>
-  <si>
-    <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10* exp(-x / 3) </t>
-  </si>
-  <si>
-    <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>10 * exp(-x / 2)</t>
-  </si>
-  <si>
-    <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>cm^3(porewater) cm^-3(dry sediment)</t>
-  </si>
-  <si>
-    <t>POC remineralization rate constant</t>
-  </si>
-  <si>
-    <t>Monod constant FeOOH</t>
-  </si>
-  <si>
-    <t>Monod constant of SO4</t>
-  </si>
-  <si>
-    <t>(mmol cm-3 pw)^-0.5 yr^-1 </t>
-  </si>
-  <si>
-    <t>Oxidiation of H2S by FeOOH</t>
-  </si>
-  <si>
-    <t>10^(-3.2)</t>
-  </si>
-  <si>
-    <t>(mmol cm^-3 pw)^-1 </t>
-  </si>
-  <si>
-    <t>apparent solubility of FeS  </t>
-  </si>
-  <si>
-    <t>200e-3*ds_rho</t>
-  </si>
-  <si>
-    <t>mmol cm^-3 ds yr^-1 </t>
-  </si>
-  <si>
-    <t>FeS precipitation rate constant</t>
-  </si>
-  <si>
-    <t> 0.565772678 </t>
-  </si>
-  <si>
-    <t>mmol cm^-3</t>
-  </si>
-  <si>
-    <t>Seawater Cl concentration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,13 +324,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,20 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="28.0703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,26 +668,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -782,10 +679,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <f>VLOOKUP(C2,L:N,2,0)</f>
-        <v>500</v>
-      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -795,30 +689,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <f>N2=E2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>500</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -828,10 +700,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <f>VLOOKUP(C3,L:N,2,0)</f>
-        <v>35</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -841,30 +710,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" t="b">
-        <f t="shared" ref="I3:I30" si="0">N3=E3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -874,10 +721,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <f>VLOOKUP(C4,L:N,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -887,30 +731,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -920,10 +742,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <f>VLOOKUP(C5,L:N,2,0)</f>
-        <v>2.6</v>
-      </c>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -933,30 +752,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -966,10 +763,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
-        <f>VLOOKUP(C6,L:N,2,0)</f>
-        <v>50</v>
-      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -979,30 +773,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1012,10 +784,7 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
-        <f>VLOOKUP(C7,L:N,2,0)</f>
-        <v>200</v>
-      </c>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -1025,30 +794,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2">
-        <v>200</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1058,10 +805,7 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(C8,L:N,2,0)</f>
-        <v>L * (exp( x /5) - 1) / (exp(L/5) - 1)</v>
-      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>23</v>
       </c>
@@ -1071,30 +815,8 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1104,10 +826,7 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(C9,L:N,2,0)</f>
-        <v>phiL+ (phi0 - phiL) * exp(-x / xphi)</v>
-      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>33</v>
       </c>
@@ -1117,30 +836,8 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1150,10 +847,7 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10">
-        <f>VLOOKUP(C10,L:N,2,0)</f>
-        <v>0.78839999999999999</v>
-      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -1163,30 +857,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.78839999999999999</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1196,10 +868,7 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11">
-        <f>VLOOKUP(C11,L:N,2,0)</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -1209,30 +878,8 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="4">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1242,10 +889,7 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(C12,L:N,2,0)</f>
-        <v xml:space="preserve">10* exp(-x / 3) </v>
-      </c>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>43</v>
       </c>
@@ -1255,30 +899,8 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1288,10 +910,7 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,L:N,2,0)</f>
-        <v>10 * exp(-x / 2)</v>
-      </c>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -1301,30 +920,8 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1334,43 +931,16 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
-        <f>VLOOKUP(C14,L:N,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" t="b">
-        <f>N14=E14</f>
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1380,10 +950,7 @@
       <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <f>VLOOKUP(C15,L:N,2,0)</f>
-        <v>0.31</v>
-      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1393,30 +960,8 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15">
-        <v>0.31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1426,10 +971,7 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16">
-        <f>VLOOKUP(C16,L:N,2,0)</f>
-        <v>2.3E-2</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>54</v>
       </c>
@@ -1439,30 +981,8 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1472,10 +992,7 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17">
-        <f>VLOOKUP(C17,L:N,2,0)</f>
-        <v>2.2204460492503101E-16</v>
-      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>54</v>
       </c>
@@ -1485,30 +1002,8 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="5">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="N17" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1516,45 +1011,20 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18">
-        <f>VLOOKUP(C18,L:N,2,0)</f>
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1562,45 +1032,20 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <f>VLOOKUP(C19,L:N,2,0)</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1608,45 +1053,20 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20">
-        <f>VLOOKUP(C20,L:N,2,0)</f>
-        <v>2.9499999999999999E-8</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2.9499999999999999E-8</v>
-      </c>
-      <c r="N20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1656,10 +1076,7 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21">
-        <f>VLOOKUP(C21,L:N,2,0)</f>
-        <v>7.59</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>68</v>
       </c>
@@ -1669,30 +1086,8 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21">
-        <v>7.59</v>
-      </c>
-      <c r="N21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1702,10 +1097,7 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22">
-        <f>VLOOKUP(C22,L:N,2,0)</f>
-        <v>2.3449999999999999E-3</v>
-      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>61</v>
       </c>
@@ -1715,30 +1107,8 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="5">
-        <v>2.3449999999999999E-3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1748,10 +1118,7 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23">
-        <f>VLOOKUP(C23,L:N,2,0)</f>
-        <v>2.2204460492503101E-16</v>
-      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>61</v>
       </c>
@@ -1761,30 +1128,8 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="5">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="N23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1794,43 +1139,16 @@
       <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(C24,L:N,2,0)</f>
-        <v> 0.565772678 </v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>110</v>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" t="s">
-        <v>109</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1838,45 +1156,18 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(C25,L:N,2,0)</f>
-        <v>10^(-3.2)</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1884,45 +1175,18 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <f>VLOOKUP(C26,L:N,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1930,45 +1194,18 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP(C27,L:N,2,0)</f>
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1976,45 +1213,18 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28">
-        <f>VLOOKUP(C28,L:N,2,0)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>61</v>
-      </c>
-      <c r="O28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2022,45 +1232,18 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29">
-        <f>VLOOKUP(C29,L:N,2,0)</f>
-        <v>4000</v>
-      </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2068,42 +1251,15 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(C30,L:N,2,0)</f>
-        <v>200e-3*ds_rho</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30">
         <v>1</v>
-      </c>
-      <c r="I30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" t="s">
-        <v>106</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>class</t>
   </si>
@@ -174,18 +174,27 @@
     <t>bioirrigation coefficient as a function of depth</t>
   </si>
   <si>
-    <t>adsorption</t>
+    <t>speciation</t>
   </si>
   <si>
     <t>KFe_ads</t>
   </si>
   <si>
-    <t>Adsorption constant</t>
+    <t>speciation constant</t>
+  </si>
+  <si>
+    <t>Cl</t>
   </si>
   <si>
     <t>BoundaryCondition</t>
   </si>
   <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>thickness of the diffusive boundary layer</t>
+  </si>
+  <si>
     <t>FPOC0</t>
   </si>
   <si>
@@ -207,25 +216,25 @@
     <t>Flux of FeS at the  TOP of sediment column</t>
   </si>
   <si>
-    <t>SO40</t>
+    <t>SO4BW</t>
   </si>
   <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of SO4 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>Concentration of Fe at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFe_ads0</t>
-  </si>
-  <si>
-    <t>Flux of Fe_ads at the  TOP of sediment column</t>
+    <t>Bottom water concentration of SO4</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FTFe_ads0</t>
+  </si>
+  <si>
+    <t>Flux of TFe_ads at the  TOP of sediment column</t>
   </si>
   <si>
     <t>pH0</t>
@@ -250,12 +259,6 @@
   </si>
   <si>
     <t>Reaction</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>appears in Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -640,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,20 +945,18 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
       <c r="D15"/>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -963,20 +964,20 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -984,20 +985,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1005,20 +1006,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1026,20 +1027,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1047,20 +1048,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1068,20 +1069,20 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1089,20 +1090,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1110,20 +1111,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1131,18 +1132,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>76</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1150,18 +1153,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25"/>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1169,18 +1174,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1188,18 +1193,18 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1207,7 +1212,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1218,7 +1223,7 @@
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1226,18 +1231,18 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1245,20 +1250,39 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="G30">
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
